--- a/legislator/property/output/normal/盧嘉辰_2011-11-18_財產申報表_tmp94c1.xlsx
+++ b/legislator/property/output/normal/盧嘉辰_2011-11-18_財產申報表_tmp94c1.xlsx
@@ -19,9 +19,120 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="65">
-  <si>
-    <t>土地企落</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="82">
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>area</t>
+  </si>
+  <si>
+    <t>share_portion</t>
+  </si>
+  <si>
+    <t>owner</t>
+  </si>
+  <si>
+    <t>register_date</t>
+  </si>
+  <si>
+    <t>register_reason</t>
+  </si>
+  <si>
+    <t>acquire_value</t>
+  </si>
+  <si>
+    <t>property_category</t>
+  </si>
+  <si>
+    <t>category</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>legislator_name</t>
+  </si>
+  <si>
+    <t>legislator_id</t>
+  </si>
+  <si>
+    <t>source_file</t>
+  </si>
+  <si>
+    <t>index</t>
+  </si>
+  <si>
+    <t>新北市土城區永和段05570000地號</t>
+  </si>
+  <si>
+    <t>新北市土城區永和段05580000地號</t>
+  </si>
+  <si>
+    <t>新北市土城區永和段07010000地號</t>
+  </si>
+  <si>
+    <t>新北市土城區永和段07020000地號</t>
+  </si>
+  <si>
+    <t>新北市土城區永和段07160000地號</t>
+  </si>
+  <si>
+    <t>新北市土城區永和段07320000地號</t>
+  </si>
+  <si>
+    <t>新北市土城區永和段07420000地號</t>
+  </si>
+  <si>
+    <t>新北市土城區建安段00020000地號</t>
+  </si>
+  <si>
+    <t>全部</t>
+  </si>
+  <si>
+    <t>36分之1</t>
+  </si>
+  <si>
+    <t>18分之1</t>
+  </si>
+  <si>
+    <t>6分之1</t>
+  </si>
+  <si>
+    <t>盧嘉辰</t>
+  </si>
+  <si>
+    <t>70年06月10日</t>
+  </si>
+  <si>
+    <t>73年06月15日</t>
+  </si>
+  <si>
+    <t>98年09月07日</t>
+  </si>
+  <si>
+    <t>買賣</t>
+  </si>
+  <si>
+    <t>受贈</t>
+  </si>
+  <si>
+    <t>(超過五年）</t>
+  </si>
+  <si>
+    <t>land</t>
+  </si>
+  <si>
+    <t>normal</t>
+  </si>
+  <si>
+    <t>2011-11-18</t>
+  </si>
+  <si>
+    <t>tmp94c1</t>
+  </si>
+  <si>
+    <t>建物標示</t>
   </si>
   <si>
     <t>面積（平方公尺）</t>
@@ -39,100 +150,40 @@
     <t>登記（取得）原因</t>
   </si>
   <si>
+    <t>取得價.額</t>
+  </si>
+  <si>
+    <t>新北市土城區永和段00006029建號</t>
+  </si>
+  <si>
+    <t>新北市土城區永和段00006030建號</t>
+  </si>
+  <si>
+    <t>73年10月23曰</t>
+  </si>
+  <si>
+    <t>73年10月23日</t>
+  </si>
+  <si>
+    <t>廠牌型號</t>
+  </si>
+  <si>
+    <t>汽缸容量</t>
+  </si>
+  <si>
+    <t>所有人</t>
+  </si>
+  <si>
     <t>取得價額</t>
   </si>
   <si>
-    <t>新北市土城區永和段0557-0000 地號</t>
-  </si>
-  <si>
-    <t>新北市土城區永和段0558-0000 地號</t>
-  </si>
-  <si>
-    <t>新北市土城區永和段0701-0000 地號</t>
-  </si>
-  <si>
-    <t>新北市土城區永和段0702-0000 地號</t>
-  </si>
-  <si>
-    <t>新北市土城區永和段0716-0000 地號</t>
-  </si>
-  <si>
-    <t>新北市土城區永和段0732-0000 地號</t>
-  </si>
-  <si>
-    <t>新北市土城區永和段0742-0000 地號</t>
-  </si>
-  <si>
-    <t>新北市土城區建安段0002-0000 地號</t>
-  </si>
-  <si>
-    <t>全部</t>
-  </si>
-  <si>
-    <t>36分之1</t>
-  </si>
-  <si>
-    <t>18分之1</t>
-  </si>
-  <si>
-    <t>6分之1</t>
-  </si>
-  <si>
-    <t>盧嘉辰</t>
-  </si>
-  <si>
-    <t>70年06月 10日</t>
-  </si>
-  <si>
-    <t>73年06月 15日</t>
-  </si>
-  <si>
-    <t>98年09月 07日</t>
-  </si>
-  <si>
-    <t>買賣</t>
-  </si>
-  <si>
-    <t>受贈</t>
-  </si>
-  <si>
-    <t>(超過五年）</t>
-  </si>
-  <si>
-    <t>建物標示</t>
-  </si>
-  <si>
-    <t>取得價.額</t>
-  </si>
-  <si>
-    <t>新北市土城區永和段00006-029 建號</t>
-  </si>
-  <si>
-    <t>新北市土城區永和段00006-030 建號</t>
-  </si>
-  <si>
-    <t>73年10月 23曰</t>
-  </si>
-  <si>
-    <t>73年10月 23日</t>
-  </si>
-  <si>
-    <t>廠牌型號</t>
-  </si>
-  <si>
-    <t>汽缸容量</t>
-  </si>
-  <si>
-    <t>所有人</t>
-  </si>
-  <si>
     <t>自用小客車</t>
   </si>
   <si>
-    <t>87年08月 11曰</t>
-  </si>
-  <si>
-    <t>97年01月 27日</t>
+    <t>87年08月11曰</t>
+  </si>
+  <si>
+    <t>97年01月27日</t>
   </si>
   <si>
     <t>存放機構(應敘明分支機構）</t>
@@ -150,7 +201,7 @@
     <t>第一商業銀行土城分行</t>
   </si>
   <si>
-    <t>中華郵政股份有限公司土 城郵局</t>
+    <t>中華郵政股份有限公司土城郵局</t>
   </si>
   <si>
     <t>土藤會土城分行</t>
@@ -183,10 +234,10 @@
     <t>抵押借款</t>
   </si>
   <si>
-    <t>永豐銀行 臺北市中正區南昌路</t>
-  </si>
-  <si>
-    <t>91年07月 17日</t>
+    <t>永豐銀行臺北市中正區南昌路</t>
+  </si>
+  <si>
+    <t>91年07月17日</t>
   </si>
   <si>
     <t>公司週轉</t>
@@ -210,7 +261,7 @@
     <t>新北市土城區承天路52號</t>
   </si>
   <si>
-    <t>68年02月 07日</t>
+    <t>68年02月07日</t>
   </si>
   <si>
     <t>投資</t>
@@ -572,13 +623,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:O9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:15">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -600,213 +651,402 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>14</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C2" s="2">
         <v>172.61</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>32</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M2" s="2">
+        <v>1715</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="O2" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>15</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C3" s="2">
         <v>57</v>
       </c>
       <c r="D3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M3" s="2">
+        <v>1715</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="O3" s="2">
         <v>15</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>16</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C4" s="2">
         <v>10.49</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="H4" s="2">
         <v>1107.3</v>
       </c>
-    </row>
-    <row r="5" spans="1:8">
+      <c r="I4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M4" s="2">
+        <v>1715</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="O4" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>17</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C5" s="2">
         <v>4626.05</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="H5" s="2">
         <v>681057.36</v>
       </c>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="I5" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M5" s="2">
+        <v>1715</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="O5" s="2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>18</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C6" s="2">
         <v>5700.48</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="H6" s="2">
         <v>1678474.6</v>
       </c>
-    </row>
-    <row r="7" spans="1:8">
+      <c r="I6" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M6" s="2">
+        <v>1715</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="O6" s="2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>19</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="C7" s="2">
         <v>1741</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="H7" s="2">
         <v>1508866.6</v>
       </c>
-    </row>
-    <row r="8" spans="1:8">
+      <c r="I7" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M7" s="2">
+        <v>1715</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="O7" s="2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>20</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="C8" s="2">
         <v>48.01</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="H8" s="2">
         <v>41608.7</v>
       </c>
-    </row>
-    <row r="9" spans="1:8">
+      <c r="I8" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M8" s="2">
+        <v>1715</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="O8" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>21</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="C9" s="2">
         <v>1302.6</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="H9" s="2">
         <v>455910</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M9" s="2">
+        <v>1715</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="O9" s="2">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -824,25 +1064,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>38</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2</v>
+        <v>39</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>3</v>
+        <v>40</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>4</v>
+        <v>41</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>5</v>
+        <v>42</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -850,25 +1090,25 @@
         <v>26</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="C2" s="2">
         <v>173.13</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="F2" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>23</v>
-      </c>
       <c r="H2" s="2" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -876,25 +1116,25 @@
         <v>27</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="C3" s="2">
         <v>48.61</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -912,22 +1152,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>4</v>
+        <v>41</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>5</v>
+        <v>42</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>6</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -935,22 +1175,22 @@
         <v>37</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="C2" s="2">
         <v>1998</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -958,19 +1198,19 @@
         <v>38</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="C3" s="2">
         <v>2362</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="G3" s="2">
         <v>1630000</v>
@@ -991,19 +1231,19 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -1011,16 +1251,16 @@
         <v>52</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="F2" s="2">
         <v>1158072</v>
@@ -1031,16 +1271,16 @@
         <v>53</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="F3" s="2">
         <v>593394</v>
@@ -1051,16 +1291,16 @@
         <v>54</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="F4" s="2">
         <v>100666</v>
@@ -1081,22 +1321,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>49</v>
+        <v>66</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>52</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1104,22 +1344,22 @@
         <v>96</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="E2" s="2">
         <v>244621</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>56</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -1137,22 +1377,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>57</v>
+        <v>74</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>58</v>
+        <v>75</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>59</v>
+        <v>76</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>60</v>
+        <v>77</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>52</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1160,22 +1400,22 @@
         <v>100</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>61</v>
+        <v>78</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>62</v>
+        <v>79</v>
       </c>
       <c r="E2" s="2">
         <v>1750000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>63</v>
+        <v>80</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>64</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1183,22 +1423,22 @@
         <v>101</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>61</v>
+        <v>78</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>62</v>
+        <v>79</v>
       </c>
       <c r="E3" s="2">
         <v>1300000</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>63</v>
+        <v>80</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>64</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/盧嘉辰_2011-11-18_財產申報表_tmp94c1.xlsx
+++ b/legislator/property/output/normal/盧嘉辰_2011-11-18_財產申報表_tmp94c1.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="58">
   <si>
     <t>name</t>
   </si>
@@ -63,7 +63,10 @@
     <t>index</t>
   </si>
   <si>
-    <t>新北市土城區永和段05570000地號</t>
+    <t>portion</t>
+  </si>
+  <si>
+    <t>total</t>
   </si>
   <si>
     <t>新北市土城區永和段05580000地號</t>
@@ -102,9 +105,6 @@
     <t>盧嘉辰</t>
   </si>
   <si>
-    <t>70年06月10日</t>
-  </si>
-  <si>
     <t>73年06月15日</t>
   </si>
   <si>
@@ -132,51 +132,18 @@
     <t>tmp94c1</t>
   </si>
   <si>
-    <t>建物標示</t>
-  </si>
-  <si>
-    <t>面積（平方公尺）</t>
-  </si>
-  <si>
-    <t>權利範圍（持分）</t>
-  </si>
-  <si>
-    <t>所有權人</t>
-  </si>
-  <si>
-    <t>登記（取得)時間</t>
-  </si>
-  <si>
-    <t>登記（取得）原因</t>
-  </si>
-  <si>
-    <t>取得價.額</t>
-  </si>
-  <si>
     <t>新北市土城區永和段00006029建號</t>
   </si>
   <si>
+    <t>73年10月23曰</t>
+  </si>
+  <si>
     <t>新北市土城區永和段00006030建號</t>
   </si>
   <si>
-    <t>73年10月23曰</t>
-  </si>
-  <si>
     <t>73年10月23日</t>
   </si>
   <si>
-    <t>廠牌型號</t>
-  </si>
-  <si>
-    <t>汽缸容量</t>
-  </si>
-  <si>
-    <t>所有人</t>
-  </si>
-  <si>
-    <t>取得價額</t>
-  </si>
-  <si>
     <t>自用小客車</t>
   </si>
   <si>
@@ -186,51 +153,24 @@
     <t>97年01月27日</t>
   </si>
   <si>
-    <t>存放機構(應敘明分支機構）</t>
-  </si>
-  <si>
-    <t>種類</t>
-  </si>
-  <si>
-    <t>幣別</t>
-  </si>
-  <si>
-    <t>新臺幣總額或折合新臺幣總輛</t>
-  </si>
-  <si>
     <t>第一商業銀行土城分行</t>
   </si>
   <si>
+    <t>活期存款</t>
+  </si>
+  <si>
+    <t>新臺幣</t>
+  </si>
+  <si>
+    <t>吳麗香</t>
+  </si>
+  <si>
     <t>中華郵政股份有限公司土城郵局</t>
   </si>
   <si>
     <t>土藤會土城分行</t>
   </si>
   <si>
-    <t>活期存款</t>
-  </si>
-  <si>
-    <t>新臺幣</t>
-  </si>
-  <si>
-    <t>吳麗香</t>
-  </si>
-  <si>
-    <t>債務人</t>
-  </si>
-  <si>
-    <t>債權人及地址</t>
-  </si>
-  <si>
-    <t>餘額</t>
-  </si>
-  <si>
-    <t>取得（發生）時間</t>
-  </si>
-  <si>
-    <t>取得（發生）原因</t>
-  </si>
-  <si>
     <t>抵押借款</t>
   </si>
   <si>
@@ -241,18 +181,6 @@
   </si>
   <si>
     <t>公司週轉</t>
-  </si>
-  <si>
-    <t>投資人</t>
-  </si>
-  <si>
-    <t>投資事業名稱</t>
-  </si>
-  <si>
-    <t>投資事業地址</t>
-  </si>
-  <si>
-    <t>投資金額</t>
   </si>
   <si>
     <t>美城有限公司</t>
@@ -623,13 +551,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O9"/>
+  <dimension ref="A1:Q8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -672,25 +600,31 @@
       <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C2" s="2">
-        <v>172.61</v>
+        <v>57</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>30</v>
@@ -708,7 +642,7 @@
         <v>35</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M2" s="2">
         <v>1715</v>
@@ -717,33 +651,39 @@
         <v>36</v>
       </c>
       <c r="O2" s="2">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>15</v>
+      </c>
+      <c r="P2" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C3" s="2">
-        <v>57</v>
+        <v>10.49</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
+      </c>
+      <c r="H3" s="2">
+        <v>1107.3</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>33</v>
@@ -755,7 +695,7 @@
         <v>35</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M3" s="2">
         <v>1715</v>
@@ -764,24 +704,30 @@
         <v>36</v>
       </c>
       <c r="O3" s="2">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>16</v>
+      </c>
+      <c r="P3" s="2">
+        <v>0.0277777777777778</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>0.291388888888889</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C4" s="2">
-        <v>10.49</v>
+        <v>4626.05</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>29</v>
@@ -790,7 +736,7 @@
         <v>31</v>
       </c>
       <c r="H4" s="2">
-        <v>1107.3</v>
+        <v>681057.36</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>33</v>
@@ -802,7 +748,7 @@
         <v>35</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M4" s="2">
         <v>1715</v>
@@ -811,24 +757,30 @@
         <v>36</v>
       </c>
       <c r="O4" s="2">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>17</v>
+      </c>
+      <c r="P4" s="2">
+        <v>0.0277777777777778</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>128.501388888889</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C5" s="2">
-        <v>4626.05</v>
+        <v>5700.48</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>29</v>
@@ -837,7 +789,7 @@
         <v>31</v>
       </c>
       <c r="H5" s="2">
-        <v>681057.36</v>
+        <v>1678474.6</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>33</v>
@@ -849,7 +801,7 @@
         <v>35</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M5" s="2">
         <v>1715</v>
@@ -858,24 +810,30 @@
         <v>36</v>
       </c>
       <c r="O5" s="2">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>18</v>
+      </c>
+      <c r="P5" s="2">
+        <v>0.0555555555555556</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>316.693333333333</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C6" s="2">
-        <v>5700.48</v>
+        <v>1741</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>29</v>
@@ -884,7 +842,7 @@
         <v>31</v>
       </c>
       <c r="H6" s="2">
-        <v>1678474.6</v>
+        <v>1508866.6</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>33</v>
@@ -896,7 +854,7 @@
         <v>35</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M6" s="2">
         <v>1715</v>
@@ -905,24 +863,30 @@
         <v>36</v>
       </c>
       <c r="O6" s="2">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>19</v>
+      </c>
+      <c r="P6" s="2">
+        <v>0.166666666666667</v>
+      </c>
+      <c r="Q6" s="2">
+        <v>290.166666666667</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C7" s="2">
-        <v>1741</v>
+        <v>48.01</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>29</v>
@@ -931,7 +895,7 @@
         <v>31</v>
       </c>
       <c r="H7" s="2">
-        <v>1508866.6</v>
+        <v>41608.7</v>
       </c>
       <c r="I7" s="2" t="s">
         <v>33</v>
@@ -943,7 +907,7 @@
         <v>35</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M7" s="2">
         <v>1715</v>
@@ -952,24 +916,30 @@
         <v>36</v>
       </c>
       <c r="O7" s="2">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>20</v>
+      </c>
+      <c r="P7" s="2">
+        <v>0.166666666666667</v>
+      </c>
+      <c r="Q7" s="2">
+        <v>8.00166666666667</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C8" s="2">
-        <v>48.01</v>
+        <v>1302.6</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>29</v>
@@ -978,7 +948,7 @@
         <v>31</v>
       </c>
       <c r="H8" s="2">
-        <v>41608.7</v>
+        <v>455910</v>
       </c>
       <c r="I8" s="2" t="s">
         <v>33</v>
@@ -990,7 +960,7 @@
         <v>35</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M8" s="2">
         <v>1715</v>
@@ -999,54 +969,13 @@
         <v>36</v>
       </c>
       <c r="O8" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
-      <c r="A9" s="1">
         <v>21</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" s="2">
-        <v>1302.6</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="H9" s="2">
-        <v>455910</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="J9" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="K9" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="L9" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="M9" s="2">
-        <v>1715</v>
-      </c>
-      <c r="N9" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="O9" s="2">
-        <v>21</v>
+      <c r="P8" s="2">
+        <v>0.166666666666667</v>
+      </c>
+      <c r="Q8" s="2">
+        <v>217.1</v>
       </c>
     </row>
   </sheetData>
@@ -1056,7 +985,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1066,74 +995,48 @@
       <c r="B1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="1">
+        <v>173.13</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>41</v>
-      </c>
       <c r="G1" s="1" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="1">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C2" s="2">
-        <v>173.13</v>
+        <v>48.61</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>30</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="1">
-        <v>27</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C3" s="2">
-        <v>48.61</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="H3" s="2" t="s">
         <v>32</v>
       </c>
     </row>
@@ -1143,175 +1046,6 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:7">
-      <c r="B1" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="1">
-        <v>37</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C2" s="2">
-        <v>1998</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="1">
-        <v>38</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C3" s="2">
-        <v>2362</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G3" s="2">
-        <v>1630000</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:6">
-      <c r="B1" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="1">
-        <v>52</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="F2" s="2">
-        <v>1158072</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="1">
-        <v>53</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F3" s="2">
-        <v>593394</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="1">
-        <v>54</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F4" s="2">
-        <v>100666</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G2"/>
   <sheetViews>
@@ -1321,45 +1055,148 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>65</v>
+        <v>41</v>
+      </c>
+      <c r="C1" s="1">
+        <v>1998</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>66</v>
+        <v>27</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>67</v>
+        <v>42</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>68</v>
+        <v>30</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>69</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
-        <v>96</v>
+        <v>38</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>70</v>
+        <v>41</v>
+      </c>
+      <c r="C2" s="2">
+        <v>2362</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G2" s="2">
+        <v>1630000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="B1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F1" s="1">
+        <v>1158072</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="1">
+        <v>53</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>48</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="E2" s="2">
+        <v>46</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F2" s="2">
+        <v>593394</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="1">
+        <v>54</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3" s="2">
+        <v>100666</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B1:G1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="2:7">
+      <c r="B1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E1" s="1">
         <v>244621</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>73</v>
+      <c r="F1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -1369,7 +1206,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1377,68 +1214,45 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>74</v>
+        <v>27</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>75</v>
+        <v>54</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>77</v>
+        <v>55</v>
+      </c>
+      <c r="E1" s="1">
+        <v>1750000</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>78</v>
+        <v>54</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>79</v>
+        <v>55</v>
       </c>
       <c r="E2" s="2">
-        <v>1750000</v>
+        <v>1300000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>80</v>
+        <v>56</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="1">
-        <v>101</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="E3" s="2">
-        <v>1300000</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>81</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/盧嘉辰_2011-11-18_財產申報表_tmp94c1.xlsx
+++ b/legislator/property/output/normal/盧嘉辰_2011-11-18_財產申報表_tmp94c1.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="60">
   <si>
     <t>name</t>
   </si>
@@ -69,6 +69,9 @@
     <t>total</t>
   </si>
   <si>
+    <t>新北市土城區永和段05570000地號</t>
+  </si>
+  <si>
     <t>新北市土城區永和段05580000地號</t>
   </si>
   <si>
@@ -105,6 +108,9 @@
     <t>盧嘉辰</t>
   </si>
   <si>
+    <t>70年06月10日</t>
+  </si>
+  <si>
     <t>73年06月15日</t>
   </si>
   <si>
@@ -135,10 +141,10 @@
     <t>新北市土城區永和段00006029建號</t>
   </si>
   <si>
+    <t>新北市土城區永和段00006030建號</t>
+  </si>
+  <si>
     <t>73年10月23曰</t>
-  </si>
-  <si>
-    <t>新北市土城區永和段00006030建號</t>
   </si>
   <si>
     <t>73年10月23日</t>
@@ -551,7 +557,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q8"/>
+  <dimension ref="A1:Q9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -609,372 +615,425 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="1">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C2" s="2">
-        <v>57</v>
+        <v>172.61</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="M2" s="2">
         <v>1715</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="O2" s="2">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="P2" s="2">
         <v>1</v>
       </c>
       <c r="Q2" s="2">
-        <v>57</v>
+        <v>172.61</v>
       </c>
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="1">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C3" s="2">
-        <v>10.49</v>
+        <v>57</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>24</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="H3" s="2">
-        <v>1107.3</v>
+        <v>32</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>34</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="M3" s="2">
         <v>1715</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="O3" s="2">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="P3" s="2">
-        <v>0.0277777777777778</v>
+        <v>1</v>
       </c>
       <c r="Q3" s="2">
-        <v>0.291388888888889</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="1">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C4" s="2">
-        <v>4626.05</v>
+        <v>10.49</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H4" s="2">
-        <v>681057.36</v>
+        <v>1107.3</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="M4" s="2">
         <v>1715</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="O4" s="2">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P4" s="2">
         <v>0.0277777777777778</v>
       </c>
       <c r="Q4" s="2">
-        <v>128.501388888889</v>
+        <v>0.291388888888889</v>
       </c>
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="1">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C5" s="2">
-        <v>5700.48</v>
+        <v>4626.05</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>25</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H5" s="2">
-        <v>1678474.6</v>
+        <v>681057.36</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="M5" s="2">
         <v>1715</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="O5" s="2">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="P5" s="2">
-        <v>0.0555555555555556</v>
+        <v>0.0277777777777778</v>
       </c>
       <c r="Q5" s="2">
-        <v>316.693333333333</v>
+        <v>128.501388888889</v>
       </c>
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="1">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>20</v>
       </c>
       <c r="C6" s="2">
-        <v>1741</v>
+        <v>5700.48</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>26</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H6" s="2">
-        <v>1508866.6</v>
+        <v>1678474.6</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="M6" s="2">
         <v>1715</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="O6" s="2">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P6" s="2">
-        <v>0.166666666666667</v>
+        <v>0.0555555555555556</v>
       </c>
       <c r="Q6" s="2">
-        <v>290.166666666667</v>
+        <v>316.693333333333</v>
       </c>
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="1">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>21</v>
       </c>
       <c r="C7" s="2">
-        <v>48.01</v>
+        <v>1741</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H7" s="2">
-        <v>41608.7</v>
+        <v>1508866.6</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="M7" s="2">
         <v>1715</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="O7" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="P7" s="2">
         <v>0.166666666666667</v>
       </c>
       <c r="Q7" s="2">
-        <v>8.00166666666667</v>
+        <v>290.166666666667</v>
       </c>
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="1">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C8" s="2">
-        <v>1302.6</v>
+        <v>48.01</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H8" s="2">
-        <v>455910</v>
+        <v>41608.7</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="M8" s="2">
         <v>1715</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="O8" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="P8" s="2">
         <v>0.166666666666667</v>
       </c>
       <c r="Q8" s="2">
+        <v>8.00166666666667</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
+      <c r="A9" s="1">
+        <v>21</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="2">
+        <v>1302.6</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="H9" s="2">
+        <v>455910</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="M9" s="2">
+        <v>1715</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="O9" s="2">
+        <v>21</v>
+      </c>
+      <c r="P9" s="2">
+        <v>0.166666666666667</v>
+      </c>
+      <c r="Q9" s="2">
         <v>217.1</v>
       </c>
     </row>
@@ -985,59 +1044,166 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:Q3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:17">
       <c r="B1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C1" s="1">
-        <v>173.13</v>
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>38</v>
+        <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>39</v>
       </c>
       <c r="C2" s="2">
+        <v>173.13</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="M2" s="2">
+        <v>1715</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="O2" s="2">
+        <v>26</v>
+      </c>
+      <c r="P2" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>173.13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
+      <c r="A3" s="1">
+        <v>27</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3" s="2">
         <v>48.61</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E2" s="2" t="s">
+      <c r="D3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="M3" s="2">
+        <v>1715</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="O3" s="2">
         <v>27</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>32</v>
+      <c r="P3" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>48.61</v>
       </c>
     </row>
   </sheetData>
@@ -1046,6 +1212,175 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="B1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1" s="1">
+        <v>1998</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1">
+        <v>37</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" s="2">
+        <v>1998</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1">
+        <v>38</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C3" s="2">
+        <v>2362</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G3" s="2">
+        <v>1630000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="B1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F1" s="1">
+        <v>1158072</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="1">
+        <v>52</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F2" s="2">
+        <v>1158072</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="1">
+        <v>53</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F3" s="2">
+        <v>593394</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="1">
+        <v>54</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F4" s="2">
+        <v>100666</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G2"/>
   <sheetViews>
@@ -1055,148 +1390,45 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C1" s="1">
-        <v>1998</v>
+        <v>52</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>28</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>42</v>
+        <v>53</v>
+      </c>
+      <c r="E1" s="1">
+        <v>244621</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>30</v>
+        <v>54</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>32</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
-        <v>38</v>
+        <v>96</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C2" s="2">
-        <v>2362</v>
+        <v>52</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>43</v>
+        <v>53</v>
+      </c>
+      <c r="E2" s="2">
+        <v>244621</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G2" s="2">
-        <v>1630000</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:6">
-      <c r="B1" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="F1" s="1">
-        <v>1158072</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="1">
-        <v>53</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F2" s="2">
-        <v>593394</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="1">
         <v>54</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F3" s="2">
-        <v>100666</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:G1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="2:7">
-      <c r="B1" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E1" s="1">
-        <v>244621</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>53</v>
+      <c r="G2" s="2" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -1206,7 +1438,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1214,45 +1446,68 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E1" s="1">
         <v>1750000</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
+        <v>100</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E2" s="2">
+        <v>1750000</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1">
         <v>101</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="E2" s="2">
+      <c r="B3" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E3" s="2">
         <v>1300000</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>57</v>
+      <c r="F3" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/盧嘉辰_2011-11-18_財產申報表_tmp94c1.xlsx
+++ b/legislator/property/output/normal/盧嘉辰_2011-11-18_財產申報表_tmp94c1.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="61">
   <si>
     <t>name</t>
   </si>
@@ -148,6 +148,9 @@
   </si>
   <si>
     <t>73年10月23日</t>
+  </si>
+  <si>
+    <t>capacity</t>
   </si>
   <si>
     <t>自用小客車</t>
@@ -1213,38 +1216,59 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C1" s="1">
-        <v>1998</v>
-      </c>
       <c r="D1" s="1" t="s">
-        <v>28</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>44</v>
+        <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>32</v>
+        <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>37</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C2" s="2">
         <v>1998</v>
@@ -1253,7 +1277,7 @@
         <v>28</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>32</v>
@@ -1261,13 +1285,34 @@
       <c r="G2" s="2" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="H2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="L2" s="2">
+        <v>1715</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="N2" s="2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" s="1">
         <v>38</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C3" s="2">
         <v>2362</v>
@@ -1276,13 +1321,34 @@
         <v>28</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>32</v>
       </c>
       <c r="G3" s="2">
         <v>1630000</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="L3" s="2">
+        <v>1715</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="N3" s="2">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -1300,16 +1366,16 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F1" s="1">
         <v>1158072</v>
@@ -1320,16 +1386,16 @@
         <v>52</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F2" s="2">
         <v>1158072</v>
@@ -1340,13 +1406,13 @@
         <v>53</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>28</v>
@@ -1360,13 +1426,13 @@
         <v>54</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>28</v>
@@ -1390,22 +1456,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E1" s="1">
         <v>244621</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1413,22 +1479,22 @@
         <v>96</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E2" s="2">
         <v>244621</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -1449,19 +1515,19 @@
         <v>28</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E1" s="1">
         <v>1750000</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1472,19 +1538,19 @@
         <v>28</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E2" s="2">
         <v>1750000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1492,22 +1558,22 @@
         <v>101</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E3" s="2">
         <v>1300000</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/盧嘉辰_2011-11-18_財產申報表_tmp94c1.xlsx
+++ b/legislator/property/output/normal/盧嘉辰_2011-11-18_財產申報表_tmp94c1.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="63">
   <si>
     <t>name</t>
   </si>
@@ -150,6 +150,9 @@
     <t>73年10月23日</t>
   </si>
   <si>
+    <t>building</t>
+  </si>
+  <si>
     <t>capacity</t>
   </si>
   <si>
@@ -160,6 +163,9 @@
   </si>
   <si>
     <t>97年01月27日</t>
+  </si>
+  <si>
+    <t>car</t>
   </si>
   <si>
     <t>第一商業銀行土城分行</t>
@@ -1129,7 +1135,7 @@
         <v>34</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>36</v>
@@ -1182,7 +1188,7 @@
         <v>34</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>36</v>
@@ -1227,7 +1233,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
@@ -1268,7 +1274,7 @@
         <v>37</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C2" s="2">
         <v>1998</v>
@@ -1277,7 +1283,7 @@
         <v>28</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>32</v>
@@ -1286,7 +1292,7 @@
         <v>34</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>36</v>
@@ -1312,7 +1318,7 @@
         <v>38</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C3" s="2">
         <v>2362</v>
@@ -1321,7 +1327,7 @@
         <v>28</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>32</v>
@@ -1330,7 +1336,7 @@
         <v>1630000</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>36</v>
@@ -1366,16 +1372,16 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F1" s="1">
         <v>1158072</v>
@@ -1386,16 +1392,16 @@
         <v>52</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F2" s="2">
         <v>1158072</v>
@@ -1406,13 +1412,13 @@
         <v>53</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>51</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>49</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>28</v>
@@ -1426,13 +1432,13 @@
         <v>54</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>28</v>
@@ -1456,22 +1462,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E1" s="1">
         <v>244621</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1479,22 +1485,22 @@
         <v>96</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E2" s="2">
         <v>244621</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -1515,19 +1521,19 @@
         <v>28</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E1" s="1">
         <v>1750000</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1538,19 +1544,19 @@
         <v>28</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E2" s="2">
         <v>1750000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1558,22 +1564,22 @@
         <v>101</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E3" s="2">
         <v>1300000</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/盧嘉辰_2011-11-18_財產申報表_tmp94c1.xlsx
+++ b/legislator/property/output/normal/盧嘉辰_2011-11-18_財產申報表_tmp94c1.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="67">
   <si>
     <t>name</t>
   </si>
@@ -168,9 +168,24 @@
     <t>car</t>
   </si>
   <si>
+    <t>bank</t>
+  </si>
+  <si>
+    <t>deposit_type</t>
+  </si>
+  <si>
+    <t>currency</t>
+  </si>
+  <si>
     <t>第一商業銀行土城分行</t>
   </si>
   <si>
+    <t>中華郵政股份有限公司土城郵局</t>
+  </si>
+  <si>
+    <t>土藤會土城分行</t>
+  </si>
+  <si>
     <t>活期存款</t>
   </si>
   <si>
@@ -180,10 +195,7 @@
     <t>吳麗香</t>
   </si>
   <si>
-    <t>中華郵政股份有限公司土城郵局</t>
-  </si>
-  <si>
-    <t>土藤會土城分行</t>
+    <t>deposit</t>
   </si>
   <si>
     <t>抵押借款</t>
@@ -1364,13 +1376,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:M4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:13">
       <c r="B1" s="1" t="s">
         <v>49</v>
       </c>
@@ -1381,33 +1393,75 @@
         <v>51</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="F1" s="1">
-        <v>1158072</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>52</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="F2" s="2">
         <v>1158072</v>
       </c>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="G2" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K2" s="2">
+        <v>1715</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="M2" s="2">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>53</v>
       </c>
@@ -1415,10 +1469,10 @@
         <v>53</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>28</v>
@@ -1426,8 +1480,29 @@
       <c r="F3" s="2">
         <v>593394</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="G3" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K3" s="2">
+        <v>1715</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="M3" s="2">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>54</v>
       </c>
@@ -1435,16 +1510,37 @@
         <v>54</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>28</v>
       </c>
       <c r="F4" s="2">
         <v>100666</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K4" s="2">
+        <v>1715</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="M4" s="2">
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -1462,22 +1558,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="E1" s="1">
         <v>244621</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1485,22 +1581,22 @@
         <v>96</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="E2" s="2">
         <v>244621</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -1521,19 +1617,19 @@
         <v>28</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="E1" s="1">
         <v>1750000</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1544,19 +1640,19 @@
         <v>28</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="E2" s="2">
         <v>1750000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1564,22 +1660,22 @@
         <v>101</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="E3" s="2">
         <v>1300000</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/盧嘉辰_2011-11-18_財產申報表_tmp94c1.xlsx
+++ b/legislator/property/output/normal/盧嘉辰_2011-11-18_財產申報表_tmp94c1.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="73">
   <si>
     <t>name</t>
   </si>
@@ -198,6 +198,12 @@
     <t>deposit</t>
   </si>
   <si>
+    <t>species</t>
+  </si>
+  <si>
+    <t>debtor</t>
+  </si>
+  <si>
     <t>抵押借款</t>
   </si>
   <si>
@@ -210,6 +216,15 @@
     <t>公司週轉</t>
   </si>
   <si>
+    <t>debt</t>
+  </si>
+  <si>
+    <t>company</t>
+  </si>
+  <si>
+    <t>address</t>
+  </si>
+  <si>
     <t>美城有限公司</t>
   </si>
   <si>
@@ -220,6 +235,9 @@
   </si>
   <si>
     <t>投資</t>
+  </si>
+  <si>
+    <t>investment</t>
   </si>
 </sst>
 </file>
@@ -1550,53 +1568,95 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
         <v>59</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>28</v>
+        <v>60</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="E1" s="1">
-        <v>244621</v>
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>61</v>
+        <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>96</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E2" s="2">
         <v>244621</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="L2" s="2">
+        <v>1715</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="N2" s="2">
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -1606,33 +1666,54 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
-        <v>28</v>
+        <v>3</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="E1" s="1">
-        <v>1750000</v>
+        <v>67</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>65</v>
+        <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>100</v>
       </c>
@@ -1640,22 +1721,43 @@
         <v>28</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="E2" s="2">
         <v>1750000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>71</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="L2" s="2">
+        <v>1715</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="N2" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" s="1">
         <v>101</v>
       </c>
@@ -1663,19 +1765,40 @@
         <v>57</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="E3" s="2">
         <v>1300000</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>66</v>
+        <v>71</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="L3" s="2">
+        <v>1715</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="N3" s="2">
+        <v>101</v>
       </c>
     </row>
   </sheetData>
